--- a/resources/Stat_Mikashevichi.xlsx
+++ b/resources/Stat_Mikashevichi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\PycharmProjects\ExcelAutomation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7F289C-C897-4B97-B651-BCC9DA7B1E28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3910B2E-D524-4DE7-BD49-01A27229D304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Первый лист" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="30">
   <si>
     <t>Процесс</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:AM378"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -564,6 +564,9 @@
       <c r="AA1" t="s">
         <v>8</v>
       </c>
+      <c r="AB1" t="s">
+        <v>29</v>
+      </c>
       <c r="AC1" t="s">
         <v>2</v>
       </c>
@@ -573,6 +576,9 @@
       <c r="AF1" t="s">
         <v>9</v>
       </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
       <c r="AH1" t="s">
         <v>2</v>
       </c>
@@ -581,6 +587,9 @@
       </c>
       <c r="AK1" t="s">
         <v>10</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>29</v>
       </c>
       <c r="AM1" t="s">
         <v>2</v>
@@ -18150,5 +18159,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>